--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1746399.924865474</v>
+        <v>1855042.086168287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10158414.88057442</v>
+        <v>10163908.52656284</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.0133794549787</v>
+        <v>354.400860385791</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>177.3666924224993</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>60.24399451265855</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>4.009268689905789</v>
+        <v>337.2448609787144</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.5569292737021</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>39.45325254851026</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>360.1829907909532</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.4714269367835</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.0012411808183</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>142.694654802106</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186439</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="D19" t="n">
-        <v>34.59690177051067</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>110.3569086801644</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>146.1850499531015</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>30.85302310518039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346631</v>
       </c>
       <c r="W37" t="n">
-        <v>151.8518831495026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0551722706142</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>207.096750443965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>192.7891334611256</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9962538432431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.953909778728</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.991392838317</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816086</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X4" t="n">
-        <v>220.18296949591</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.18296949591</v>
+        <v>803.2261243354872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.685699760054</v>
+        <v>1576.854514966047</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.685699760054</v>
+        <v>1576.854514966047</v>
       </c>
       <c r="D5" t="n">
-        <v>1252.420001153303</v>
+        <v>1218.588816359296</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4604,13 +4606,13 @@
         <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.825031735865</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2000.825031735865</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.685699760054</v>
+        <v>1963.454355030168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.8033708781531</v>
+        <v>230.8512698294485</v>
       </c>
       <c r="C7" t="n">
-        <v>537.8671879502463</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>387.7505485379105</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>239.8374549555174</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>239.8374549555174</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>239.8374549555174</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>91.09855681902357</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X7" t="n">
-        <v>1109.244414851923</v>
+        <v>633.2923138032183</v>
       </c>
       <c r="Y7" t="n">
-        <v>888.4518357083929</v>
+        <v>412.4997346596882</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1694.7321336807</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>527.2645251530219</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>821.9680821844935</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1075.097337786232</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>906.1611548583251</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>756.0445154459893</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>608.1314218635962</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>461.2414743656858</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>293.5386377404047</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>147.3214509582625</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1705.527932658019</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W10" t="n">
-        <v>1705.527932658019</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X10" t="n">
-        <v>1477.538381760002</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="Y10" t="n">
-        <v>1256.745802616472</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,16 +5129,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,61 +5175,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5270,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656489</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703109</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>695.5020655703109</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>3807.864035926978</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.400878868273</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.119525808646</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7090,52 +7092,52 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.315625093766</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
         <v>1280.315625093766</v>
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V40" t="n">
-        <v>1938.286391947399</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7408,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7439,19 +7441,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
         <v>631.7012443408905</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.2582814363238</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457060021</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="D19" t="n">
-        <v>114.0185712477017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>69.47507150177286</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>71.22040037418677</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>145.6085800303771</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>194.8566322838568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="W37" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>61.35027805667409</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>79.42624789262601</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>25.79551989096916</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>31.71340154579403</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>888719.3422542281</v>
+        <v>894661.2697552989</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907535</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="D4" t="n">
-        <v>86084.45926805868</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26439,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707334</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707412</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889977</v>
+        <v>-785396.0881889975</v>
       </c>
       <c r="C6" t="n">
+        <v>329355.6953869214</v>
+      </c>
+      <c r="D6" t="n">
         <v>329355.6953869219</v>
       </c>
-      <c r="D6" t="n">
-        <v>167557.6543886015</v>
-      </c>
       <c r="E6" t="n">
-        <v>111391.5386627845</v>
+        <v>-70681.44115440644</v>
       </c>
       <c r="F6" t="n">
         <v>436804.0004701396</v>
       </c>
       <c r="G6" t="n">
+        <v>436804.0004701396</v>
+      </c>
+      <c r="H6" t="n">
+        <v>436804.0004701396</v>
+      </c>
+      <c r="I6" t="n">
+        <v>436804.0004701395</v>
+      </c>
+      <c r="J6" t="n">
+        <v>269198.8226601568</v>
+      </c>
+      <c r="K6" t="n">
+        <v>436804.0004701395</v>
+      </c>
+      <c r="L6" t="n">
+        <v>436804.0004701395</v>
+      </c>
+      <c r="M6" t="n">
+        <v>304196.7067412127</v>
+      </c>
+      <c r="N6" t="n">
         <v>436804.0004701394</v>
       </c>
-      <c r="H6" t="n">
-        <v>436804.0004701392</v>
-      </c>
-      <c r="I6" t="n">
-        <v>436804.0004701394</v>
-      </c>
-      <c r="J6" t="n">
-        <v>269198.8226601569</v>
-      </c>
-      <c r="K6" t="n">
-        <v>436804.0004701391</v>
-      </c>
-      <c r="L6" t="n">
-        <v>388510.0304619488</v>
-      </c>
-      <c r="M6" t="n">
-        <v>351748.9725346278</v>
-      </c>
-      <c r="N6" t="n">
-        <v>436804.0004701398</v>
-      </c>
       <c r="O6" t="n">
-        <v>436804.0004701394</v>
+        <v>436804.0004701397</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701398</v>
+        <v>436804.0004701393</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26792,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.72046220850189</v>
+        <v>28.33298127768956</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>2.465287759438041</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>165.4656608763786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>377.921101382356</v>
+        <v>44.68550909354735</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.6898918249257</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>65.34334265539032</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5.089900980054324</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>256.7665117192701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16.35117922901979</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>75.88999854998883</v>
       </c>
     </row>
     <row r="11">
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>429.5828357723605</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M18" t="n">
-        <v>518.439455159358</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496621</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,25 +34783,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>602.2300008170298</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882568</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535155</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>417.8457776798086</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>295.6084283580303</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M18" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663288</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1855042.086168287</v>
+        <v>1850904.928918135</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354.400860385791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>318.0025296640338</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.3666924224993</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>94.7673280486391</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>337.2448609787144</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>283.722407498965</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5569292737021</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542857</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>360.1829907909532</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>90.02281227145906</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>5.587208265761066</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.694654802106</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>48.85497112745813</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>38.61213096654825</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.3569086801644</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>35.41770597126747</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>156.0551722706142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>79.1153231220618</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.7891334611256</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.006892987834117</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.332751740275</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>861.4853631853464</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.0678491612455</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="C4" t="n">
-        <v>455.1316662333386</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210029</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1540.721546287993</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1286.037058082106</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354872</v>
+        <v>996.6198880451458</v>
       </c>
       <c r="X4" t="n">
-        <v>803.2261243354872</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.2261243354872</v>
+        <v>768.6303371471284</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1576.854514966047</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>1576.854514966047</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="D5" t="n">
-        <v>1218.588816359296</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>1119.253774927147</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>708.2678701375394</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2353.59368700598</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1963.454355030168</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
         <v>302.1446891756898</v>
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694945</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.8512698294485</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C7" t="n">
-        <v>199.9856847044969</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>861.2818647012357</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>633.2923138032183</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>412.4997346596882</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.132293616578</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>512.6117133420788</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656512</v>
+        <v>1296.296386131216</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.7321336807</v>
+        <v>906.157054155404</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>527.2645251530219</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L9" t="n">
-        <v>821.9680821844935</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>944.5879060637673</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>775.6517231358604</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>625.5350837235246</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>477.6219901411315</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>330.7320426432211</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>162.7455779514997</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1413.467639269233</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1413.467639269233</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5059,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,61 +5412,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
         <v>2273.199413378161</v>
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>464.5051450557705</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101294</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300426</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926978</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4267.210002903526</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.931364336515</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1210.138785192985</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2411.187623003223</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.586158026164</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.510931370362</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7268,7 +7268,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.8692823226939</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>473.9330993947871</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2106.476762093131</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1817.401535437329</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1562.717047231442</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1273.299877194481</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1045.310326296464</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>824.5177471529337</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,19 +7426,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,22 +7727,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2443.925817935984</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2261.070983590888</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2041.469518613829</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1752.394291958027</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.70980375214</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.292633715179</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3030828171618</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5105036736317</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878358</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>54.95314511566528</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>231.2582814363238</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>118.3918499711697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>86.11098998263061</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.47507150177286</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.6085800303771</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>61.35027805667409</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.79551989096916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.36835372228757</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26441,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889975</v>
+        <v>-785396.0881889979</v>
       </c>
       <c r="C6" t="n">
-        <v>329355.6953869214</v>
+        <v>329355.6953869216</v>
       </c>
       <c r="D6" t="n">
-        <v>329355.6953869219</v>
+        <v>329355.6953869217</v>
       </c>
       <c r="E6" t="n">
-        <v>-70681.44115440644</v>
+        <v>-71028.82040876312</v>
       </c>
       <c r="F6" t="n">
-        <v>436804.0004701396</v>
+        <v>436456.6212157827</v>
       </c>
       <c r="G6" t="n">
-        <v>436804.0004701396</v>
+        <v>436456.6212157824</v>
       </c>
       <c r="H6" t="n">
-        <v>436804.0004701396</v>
+        <v>436456.6212157827</v>
       </c>
       <c r="I6" t="n">
-        <v>436804.0004701395</v>
+        <v>436456.6212157823</v>
       </c>
       <c r="J6" t="n">
-        <v>269198.8226601568</v>
+        <v>268851.4434057998</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.0004701395</v>
+        <v>436456.6212157824</v>
       </c>
       <c r="L6" t="n">
-        <v>436804.0004701395</v>
+        <v>436456.6212157824</v>
       </c>
       <c r="M6" t="n">
-        <v>304196.7067412127</v>
+        <v>303849.327486856</v>
       </c>
       <c r="N6" t="n">
-        <v>436804.0004701394</v>
+        <v>436456.6212157824</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701397</v>
+        <v>436456.6212157823</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701393</v>
+        <v>436456.6212157828</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.33298127768956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>63.92784040822795</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.465287759438041</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>191.4598260725615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>44.68550909354735</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>127.825295273989</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>136.6898918249257</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.089900980054324</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>321.524890501495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>141.6643008893678</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.88999854998883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496621</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694772</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313206</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170298</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>352.6335057535155</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35029,13 +35029,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202783</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>417.8457776798086</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663288</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1850904.928918135</v>
+        <v>1852665.459220921</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>318.0025296640338</v>
+        <v>349.9426514783314</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>94.7673280486391</v>
+        <v>90.69811547110089</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>283.722407498965</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>263.6022328424124</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542857</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>90.02281227145906</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>35.54361781414574</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>5.587208265761066</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>65.5830047047553</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1426,13 +1426,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>82.47290449300853</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>258.4213586456705</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.63824106824953</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576164</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>94.91529601901398</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>275.330023919727</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>72.78315874934748</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>50.49265242092922</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>79.1153231220618</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.713578732508</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.751061792097</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="D2" t="n">
-        <v>861.4853631853464</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.228484740841</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1601.847660535551</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>1601.847660535551</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380235</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694952</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>768.6303371471284</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1540.721546287993</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.037058082106</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W4" t="n">
-        <v>996.6198880451458</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>768.6303371471284</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>768.6303371471284</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525391</v>
+        <v>740.1619192519202</v>
       </c>
       <c r="C5" t="n">
-        <v>1505.042027525391</v>
+        <v>740.1619192519202</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.042027525391</v>
+        <v>740.1619192519202</v>
       </c>
       <c r="E5" t="n">
-        <v>1119.253774927147</v>
+        <v>740.1619192519202</v>
       </c>
       <c r="F5" t="n">
-        <v>708.2678701375394</v>
+        <v>733.2164185027167</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>317.5116682270055</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1126.761759316042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1126.761759316042</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>575.6256845144194</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>870.3292415458911</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217535</v>
+        <v>1233.591260505111</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118699</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657498</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378429</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255072</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.632439243114</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452037</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312202</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.03939913952</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959895</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>519.5572140912823</v>
+        <v>474.7217947496383</v>
       </c>
       <c r="C8" t="n">
-        <v>519.5572140912823</v>
+        <v>105.7592778092265</v>
       </c>
       <c r="D8" t="n">
-        <v>519.5572140912823</v>
+        <v>105.7592778092265</v>
       </c>
       <c r="E8" t="n">
-        <v>519.5572140912823</v>
+        <v>105.7592778092265</v>
       </c>
       <c r="F8" t="n">
-        <v>512.6117133420788</v>
+        <v>98.81377706002307</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>87.14943082471601</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>87.14943082471601</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392296</v>
+        <v>1624.926725050652</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131216</v>
+        <v>1251.460966789572</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.157054155404</v>
+        <v>861.3216348137601</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143488</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458207</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.5879060637673</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C10" t="n">
-        <v>775.6517231358604</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D10" t="n">
-        <v>625.5350837235246</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>477.6219901411315</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>330.7320426432211</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>162.7455779514997</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1570.200660776765</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.028950037537</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.236370894007</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>481.447947124485</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2363.657119445908</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5360,19 +5360,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
         <v>402.7245934908939</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2306.399037661605</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2086.797572684546</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>368.61787677092</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878358</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013356</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>154.0169020165184</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
-        <v>211.0329012241551</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780633</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>98.55338150863606</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>27.76311574357368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7828069546817</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>86.11098998263061</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>10.85445046951713</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.2431272522971</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>115.0314858713396</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26456,7 +26456,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889979</v>
+        <v>-785396.0881889982</v>
       </c>
       <c r="C6" t="n">
+        <v>329355.6953869219</v>
+      </c>
+      <c r="D6" t="n">
         <v>329355.6953869216</v>
       </c>
-      <c r="D6" t="n">
-        <v>329355.6953869217</v>
-      </c>
       <c r="E6" t="n">
-        <v>-71028.82040876312</v>
+        <v>-70716.17907984141</v>
       </c>
       <c r="F6" t="n">
-        <v>436456.6212157827</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="G6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.262544704</v>
       </c>
       <c r="H6" t="n">
-        <v>436456.6212157827</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="I6" t="n">
-        <v>436456.6212157823</v>
+        <v>436769.2625447041</v>
       </c>
       <c r="J6" t="n">
-        <v>268851.4434057998</v>
+        <v>269164.084734721</v>
       </c>
       <c r="K6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="L6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="M6" t="n">
-        <v>303849.327486856</v>
+        <v>304161.9688157775</v>
       </c>
       <c r="N6" t="n">
-        <v>436456.6212157824</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="O6" t="n">
-        <v>436456.6212157823</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="P6" t="n">
-        <v>436456.6212157828</v>
+        <v>436769.2625447037</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>63.92784040822795</v>
+        <v>31.98771859393042</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>191.4598260725615</v>
+        <v>195.5290386500997</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>127.825295273989</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.416319719993</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193756</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>321.524890501495</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>30.1662948583247</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>141.6643008893678</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>220.9399936318357</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313206</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>340.6043982600033</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O6" t="n">
-        <v>546.4575832202783</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215482</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
